--- a/五金/五金账单20200331.xlsx
+++ b/五金/五金账单20200331.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\33\33\phg\五金\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\33\phg\五金\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="264">
   <si>
     <t>样品快递费（扬州）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1347,10 +1343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自动车订金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>33支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1426,6 +1418,74 @@
   </si>
   <si>
     <t>202001-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0640钨钢夹头5mm(33)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0640弹簧钢5mm(33)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高铁票往返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏氏1.5钻头5包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月份之前支出（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏氏1.5钻头5包(33)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款利息(33)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双头车退押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0640弹簧钢5mm(33)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双头车退押金(33)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车刀15把（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车刀15把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月份的加工费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月17号总支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1562,7 +1622,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1578,6 +1638,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,7 +1740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1739,11 +1805,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1754,13 +1835,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2042,24 +2125,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="37.75" customWidth="1"/>
+    <col min="3" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1">
+    <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2067,16 +2150,19 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>246</v>
+        <v>263</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>262</v>
       </c>
       <c r="E1" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1">
+    <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="3">
         <v>20191016</v>
       </c>
@@ -2087,9 +2173,10 @@
         <f>SUM($B$2:B2)</f>
         <v>700</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2" s="41"/>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>20191022</v>
       </c>
@@ -2100,12 +2187,13 @@
         <f>SUM($B$2:B3)</f>
         <v>11693</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="41"/>
+      <c r="E3" s="35"/>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>20191115</v>
       </c>
@@ -2116,12 +2204,13 @@
         <f>SUM($B$2:B4)</f>
         <v>46693</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="41"/>
+      <c r="E4" s="35"/>
+      <c r="F4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>20191230</v>
       </c>
@@ -2132,12 +2221,13 @@
         <f>SUM($B$2:B5)</f>
         <v>70403</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="41"/>
+      <c r="E5" s="35"/>
+      <c r="F5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>20200121</v>
       </c>
@@ -2148,26 +2238,29 @@
         <f>SUM($B$2:B6)</f>
         <v>90403</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="41"/>
+      <c r="E6" s="35"/>
+      <c r="F6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="C7" s="3">
         <f>SUM($B$2:B7)</f>
         <v>90403</v>
       </c>
-      <c r="D7" s="35"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="41"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="C8" s="3">
         <f>SUM($B$2:B8)</f>
         <v>90403</v>
       </c>
-      <c r="D8" s="35"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.5">
+      <c r="D8" s="41"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:6" ht="25.5">
       <c r="A9" s="43">
         <v>20200331</v>
       </c>
@@ -2176,28 +2269,289 @@
         <f>SUM($B$2:B9)</f>
         <v>90403</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="37"/>
+      <c r="E9" s="37">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10" s="3"/>
-      <c r="D10" s="35"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" s="3"/>
-      <c r="D11" s="35"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" s="3"/>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="3"/>
-      <c r="D13" s="35"/>
+      <c r="F9" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="51">
+        <f>总支出!A33</f>
+        <v>20200416</v>
+      </c>
+      <c r="B10" s="51">
+        <v>20000</v>
+      </c>
+      <c r="C10" s="52">
+        <f>SUM($B$2:B10)</f>
+        <v>110403</v>
+      </c>
+      <c r="D10" s="52">
+        <f>SUM($B$10:B10)</f>
+        <v>20000</v>
+      </c>
+      <c r="E10" s="53">
+        <f>D10-总支出!C33</f>
+        <v>14966.66</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f>总支出!A34</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="50">
+        <f>SUM($B$2:B11)</f>
+        <v>110403</v>
+      </c>
+      <c r="D11" s="50">
+        <f>SUM($B$10:B11)</f>
+        <v>20000</v>
+      </c>
+      <c r="E11" s="41">
+        <f>D11-总支出!C34</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f>总支出!A35</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="50">
+        <f>SUM($B$2:B12)</f>
+        <v>110403</v>
+      </c>
+      <c r="D12" s="50">
+        <f>SUM($B$10:B12)</f>
+        <v>20000</v>
+      </c>
+      <c r="E12" s="41">
+        <f>D12-总支出!C35</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f>总支出!A36</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="50">
+        <f>SUM($B$2:B13)</f>
+        <v>110403</v>
+      </c>
+      <c r="D13" s="50">
+        <f>SUM($B$10:B13)</f>
+        <v>20000</v>
+      </c>
+      <c r="E13" s="41">
+        <f>D13-总支出!C36</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f>总支出!A37</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="50">
+        <f>SUM($B$2:B14)</f>
+        <v>110403</v>
+      </c>
+      <c r="D14" s="50">
+        <f>SUM($B$10:B14)</f>
+        <v>20000</v>
+      </c>
+      <c r="E14" s="41">
+        <f>D14-总支出!C37</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f>总支出!A38</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="50">
+        <f>SUM($B$2:B15)</f>
+        <v>110403</v>
+      </c>
+      <c r="D15" s="50">
+        <f>SUM($B$10:B15)</f>
+        <v>20000</v>
+      </c>
+      <c r="E15" s="41">
+        <f>D15-总支出!C38</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <f>总支出!A39</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="50">
+        <f>SUM($B$2:B16)</f>
+        <v>110403</v>
+      </c>
+      <c r="D16" s="50">
+        <f>SUM($B$10:B16)</f>
+        <v>20000</v>
+      </c>
+      <c r="E16" s="41">
+        <f>D16-总支出!C39</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <f>总支出!A40</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="50">
+        <f>SUM($B$2:B17)</f>
+        <v>110403</v>
+      </c>
+      <c r="D17" s="50">
+        <f>SUM($B$10:B17)</f>
+        <v>20000</v>
+      </c>
+      <c r="E17" s="41">
+        <f>D17-总支出!C40</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <f>总支出!A41</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="50">
+        <f>SUM($B$2:B18)</f>
+        <v>110403</v>
+      </c>
+      <c r="D18" s="50">
+        <f>SUM($B$10:B18)</f>
+        <v>20000</v>
+      </c>
+      <c r="E18" s="41">
+        <f>D18-总支出!C41</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <f>总支出!A42</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="50">
+        <f>SUM($B$2:B19)</f>
+        <v>110403</v>
+      </c>
+      <c r="D19" s="50">
+        <f>SUM($B$10:B19)</f>
+        <v>20000</v>
+      </c>
+      <c r="E19" s="41">
+        <f>D19-总支出!C42</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <f>总支出!A43</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="50">
+        <f>SUM($B$2:B20)</f>
+        <v>110403</v>
+      </c>
+      <c r="D20" s="50">
+        <f>SUM($B$10:B20)</f>
+        <v>20000</v>
+      </c>
+      <c r="E20" s="41">
+        <f>D20-总支出!C43</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <f>总支出!A44</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="50">
+        <f>SUM($B$2:B21)</f>
+        <v>110403</v>
+      </c>
+      <c r="D21" s="50">
+        <f>SUM($B$10:B21)</f>
+        <v>20000</v>
+      </c>
+      <c r="E21" s="41">
+        <f>D21-总支出!C44</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <f>总支出!A45</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="50">
+        <f>SUM($B$2:B22)</f>
+        <v>110403</v>
+      </c>
+      <c r="D22" s="50">
+        <f>SUM($B$10:B22)</f>
+        <v>20000</v>
+      </c>
+      <c r="E22" s="41">
+        <f>D22-总支出!C45</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <f>总支出!A46</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="50">
+        <f>SUM($B$2:B23)</f>
+        <v>110403</v>
+      </c>
+      <c r="D23" s="50">
+        <f>SUM($B$10:B23)</f>
+        <v>20000</v>
+      </c>
+      <c r="E23" s="41">
+        <f>D23-总支出!C46</f>
+        <v>14966.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <f>总支出!A47</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="50">
+        <f>SUM($B$2:B24)</f>
+        <v>110403</v>
+      </c>
+      <c r="D24" s="50">
+        <f>SUM($B$10:B24)</f>
+        <v>20000</v>
+      </c>
+      <c r="E24" s="41">
+        <f>D24-总支出!C47</f>
+        <v>14966.66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2211,13 +2565,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2229,16 +2583,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2253,7 +2607,7 @@
         <v>5000</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2268,7 +2622,7 @@
         <v>5300</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2283,7 +2637,7 @@
         <v>7164</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2298,7 +2652,7 @@
         <v>7380</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2313,7 +2667,7 @@
         <v>7598</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2328,7 +2682,7 @@
         <v>10118</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2343,7 +2697,7 @@
         <v>10953</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2358,7 +2712,7 @@
         <v>12953</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2373,7 +2727,7 @@
         <v>12973</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2388,7 +2742,7 @@
         <v>14273</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2403,7 +2757,7 @@
         <v>15603</v>
       </c>
       <c r="D12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2418,7 +2772,7 @@
         <v>20603</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2433,7 +2787,7 @@
         <v>21003</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2448,7 +2802,7 @@
         <v>23003</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2463,22 +2817,22 @@
         <v>33003</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>20191217</v>
+        <v>20191228</v>
       </c>
       <c r="B17">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="C17">
         <f>SUM($B$2:B17)</f>
-        <v>34003</v>
+        <v>41003</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2486,119 +2840,319 @@
         <v>20191228</v>
       </c>
       <c r="B18">
-        <v>8000</v>
+        <v>785</v>
       </c>
       <c r="C18">
         <f>SUM($B$2:B18)</f>
-        <v>42003</v>
+        <v>41788</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>20191228</v>
+        <v>20191229</v>
       </c>
       <c r="B19">
-        <v>785</v>
+        <v>420</v>
       </c>
       <c r="C19">
         <f>SUM($B$2:B19)</f>
-        <v>42788</v>
+        <v>42208</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>20191229</v>
+        <v>20191230</v>
       </c>
       <c r="B20">
-        <v>420</v>
+        <v>205</v>
       </c>
       <c r="C20">
         <f>SUM($B$2:B20)</f>
-        <v>43208</v>
+        <v>42413</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>20191230</v>
+        <v>20200125</v>
       </c>
       <c r="B21">
-        <v>205</v>
+        <v>8150</v>
       </c>
       <c r="C21">
         <f>SUM($B$2:B21)</f>
-        <v>43413</v>
+        <v>50563</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22">
-        <v>20200125</v>
-      </c>
       <c r="B22">
-        <v>8150</v>
+        <v>4200</v>
       </c>
       <c r="C22">
         <f>SUM($B$2:B22)</f>
-        <v>51563</v>
+        <v>54763</v>
       </c>
       <c r="D22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23">
-        <v>4200</v>
-      </c>
       <c r="C23">
         <f>SUM($B$2:B23)</f>
-        <v>55763</v>
-      </c>
-      <c r="D23" t="s">
-        <v>235</v>
+        <v>54763</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="C24">
         <f>SUM($B$2:B24)</f>
-        <v>55763</v>
+        <v>54763</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="C25">
         <f>SUM($B$2:B25)</f>
-        <v>55763</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26">
+        <v>54763</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="25.5">
+      <c r="A26" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="34">
         <f>SUM($B$2:B26)</f>
-        <v>55763</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="25.5">
-      <c r="A27" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="34">
-        <f>SUM($B$2:B27)</f>
-        <v>55763</v>
+        <v>54763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>20200331</v>
+      </c>
+      <c r="B27">
+        <f>'33支出'!D131</f>
+        <v>4652.8899999999994</v>
+      </c>
+      <c r="C27">
+        <f>SUM($B$27:B27)</f>
+        <v>4652.8899999999994</v>
+      </c>
+      <c r="D27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>20200401</v>
+      </c>
+      <c r="B28">
+        <v>520</v>
+      </c>
+      <c r="C28">
+        <f>SUM($B$27:B28)</f>
+        <v>5172.8899999999994</v>
+      </c>
+      <c r="D28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>20200401</v>
+      </c>
+      <c r="B29">
+        <v>123</v>
+      </c>
+      <c r="C29">
+        <f>SUM($B$27:B29)</f>
+        <v>5295.8899999999994</v>
+      </c>
+      <c r="D29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>20200405</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+      <c r="C30">
+        <f>SUM($B$27:B30)</f>
+        <v>5495.8899999999994</v>
+      </c>
+      <c r="D30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>20200407</v>
+      </c>
+      <c r="B31">
+        <v>319.45</v>
+      </c>
+      <c r="C31">
+        <f>SUM($B$27:B31)</f>
+        <v>5815.3399999999992</v>
+      </c>
+      <c r="D31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>20200415</v>
+      </c>
+      <c r="B32">
+        <v>-1000</v>
+      </c>
+      <c r="C32">
+        <f>SUM($B$27:B32)</f>
+        <v>4815.3399999999992</v>
+      </c>
+      <c r="D32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="51">
+        <v>20200416</v>
+      </c>
+      <c r="B33" s="51">
+        <v>218</v>
+      </c>
+      <c r="C33" s="51">
+        <f>SUM($B$27:B33)</f>
+        <v>5033.3399999999992</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33" s="51"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="C34">
+        <f>SUM($B$27:B34)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="C35">
+        <f>SUM($B$27:B35)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36">
+        <f>SUM($B$27:B36)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="C37">
+        <f>SUM($B$27:B37)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38">
+        <f>SUM($B$27:B38)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="C39">
+        <f>SUM($B$27:B39)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="C40">
+        <f>SUM($B$27:B40)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="C41">
+        <f>SUM($B$27:B41)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="C42">
+        <f>SUM($B$27:B42)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="C43">
+        <f>SUM($B$27:B43)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="C44">
+        <f>SUM($B$27:B44)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="C45">
+        <f>SUM($B$27:B45)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46">
+        <f>SUM($B$27:B46)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="C47">
+        <f>SUM($B$27:B47)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="C48">
+        <f>SUM($B$27:B48)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49">
+        <f>SUM($B$27:B49)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50">
+        <f>SUM($B$27:B50)</f>
+        <v>5033.3399999999992</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51">
+        <f>SUM($B$27:B51)</f>
+        <v>5033.3399999999992</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2614,7 +3168,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2626,13 +3180,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="A1" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
@@ -2646,19 +3200,19 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D2" s="32">
         <v>33</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2690,8 +3244,8 @@
     </row>
     <row r="6" spans="1:15">
       <c r="B6">
-        <f>收入!C9-总支出!C27</f>
-        <v>34640</v>
+        <f>收入!C9-总支出!C26</f>
+        <v>35640</v>
       </c>
       <c r="E6">
         <v>8150</v>
@@ -2703,7 +3257,7 @@
       </c>
       <c r="B7" s="34">
         <f>SUM(B3:B6)</f>
-        <v>34640</v>
+        <v>35640</v>
       </c>
       <c r="C7" s="34">
         <f>SUM(C3:C6)</f>
@@ -2793,13 +3347,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P131"/>
+  <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G119" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="H128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomRight" activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2828,10 +3382,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5">
@@ -2852,7 +3406,7 @@
         <v>878</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2873,12 +3427,12 @@
         <f>SUM($B$2:B3)</f>
         <v>884</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="H3" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
@@ -2899,16 +3453,16 @@
         <v>987</v>
       </c>
       <c r="H4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" t="s">
         <v>121</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>122</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>123</v>
-      </c>
-      <c r="K4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1">
@@ -2923,7 +3477,7 @@
         <v>1081</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <f>SUM($B$2:B5)</f>
@@ -2939,7 +3493,7 @@
         <v>4000</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2954,7 +3508,7 @@
         <v>1438</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <f>SUM($B$2:B6)</f>
@@ -2971,7 +3525,7 @@
         <v>4844</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2986,7 +3540,7 @@
         <v>1552</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <f>SUM($B$2:B7)</f>
@@ -3003,7 +3557,7 @@
         <v>4575</v>
       </c>
       <c r="K7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3018,7 +3572,7 @@
         <v>2422</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <f>SUM($B$2:B8)</f>
@@ -3035,7 +3589,7 @@
         <v>5075</v>
       </c>
       <c r="K8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3050,12 +3604,25 @@
         <v>3940</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <f>SUM($B$2:B9)</f>
         <v>3940</v>
       </c>
+      <c r="H9">
+        <v>20200325</v>
+      </c>
+      <c r="I9">
+        <v>1060</v>
+      </c>
+      <c r="J9" s="1">
+        <f>J8+I9</f>
+        <v>6135</v>
+      </c>
+      <c r="K9" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
@@ -3069,7 +3636,7 @@
         <v>4082</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <f>SUM($B$2:B10)</f>
@@ -3088,7 +3655,7 @@
         <v>4097</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <f>SUM($B$2:B11)</f>
@@ -3107,7 +3674,7 @@
         <v>4106</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <f>SUM($B$2:B12)</f>
@@ -3126,7 +3693,7 @@
         <v>5106</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <f>SUM($B$2:B13)</f>
@@ -3145,7 +3712,7 @@
         <v>5210</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <f>SUM($B$2:B14)</f>
@@ -3164,7 +3731,7 @@
         <v>5216</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <f>SUM($B$2:B15)</f>
@@ -3183,7 +3750,7 @@
         <v>5248</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16">
         <f>SUM($B$2:B16)</f>
@@ -3202,7 +3769,7 @@
         <v>5390</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17">
         <f>SUM($B$2:B17)</f>
@@ -3221,7 +3788,7 @@
         <v>5438</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18">
         <f>SUM($B$2:B18)</f>
@@ -3240,7 +3807,7 @@
         <v>5635</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19">
         <f>SUM($B$2:B19)</f>
@@ -3259,7 +3826,7 @@
         <v>5815</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20">
         <f>SUM($B$2:B20)</f>
@@ -3278,7 +3845,7 @@
         <v>5657.5</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <f>SUM($B$2:B21)</f>
@@ -3297,7 +3864,7 @@
         <v>5529.5</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22">
         <f>SUM($B$2:B22)</f>
@@ -3316,7 +3883,7 @@
         <v>5540.5</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23">
         <f>SUM($B$2:B23)</f>
@@ -3335,7 +3902,7 @@
         <v>5702.5</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24">
         <f>SUM($B$2:B24)</f>
@@ -3354,7 +3921,7 @@
         <v>5866.5</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25">
         <f>SUM($B$2:B25)</f>
@@ -3373,7 +3940,7 @@
         <v>6226.5</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <f>SUM($B$2:B26)</f>
@@ -3392,7 +3959,7 @@
         <v>6843.7</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27">
         <f>SUM($B$2:B27)</f>
@@ -3411,7 +3978,7 @@
         <v>6853.7</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28">
         <f>SUM($B$2:B28)</f>
@@ -3430,7 +3997,7 @@
         <v>7007.7</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29">
         <f>SUM($B$2:B29)</f>
@@ -3449,7 +4016,7 @@
         <v>7086.7</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30">
         <f>SUM($B$2:B30)</f>
@@ -3468,7 +4035,7 @@
         <v>7212.7</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E31">
         <f>SUM($B$2:B31)</f>
@@ -3487,7 +4054,7 @@
         <v>7348.7</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E32">
         <f>SUM($B$2:B32)</f>
@@ -3506,7 +4073,7 @@
         <v>7397.7</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E33">
         <f>SUM($B$2:B33)</f>
@@ -3525,7 +4092,7 @@
         <v>7621.7</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34">
         <f>SUM($B$2:B34)</f>
@@ -3544,7 +4111,7 @@
         <v>7717.7</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35">
         <f>SUM($B$2:B35)</f>
@@ -3563,7 +4130,7 @@
         <v>7841.7</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36">
         <f>SUM($B$2:B36)</f>
@@ -3582,7 +4149,7 @@
         <v>8002.2</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E37">
         <f>SUM($B$2:B37)</f>
@@ -3601,7 +4168,7 @@
         <v>8064.2</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38">
         <f>SUM($B$2:B38)</f>
@@ -3620,7 +4187,7 @@
         <v>8161.87</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E39">
         <f>SUM($B$2:B39)</f>
@@ -3639,7 +4206,7 @@
         <v>8198.869999999999</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40">
         <f>SUM($B$2:B40)</f>
@@ -3658,7 +4225,7 @@
         <v>8458.869999999999</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E41">
         <f>SUM($B$2:B41)</f>
@@ -3677,7 +4244,7 @@
         <v>8486.369999999999</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42">
         <f>SUM($B$2:B42)</f>
@@ -3696,7 +4263,7 @@
         <v>8524.3499999999985</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E43">
         <f>SUM($B$2:B43)</f>
@@ -3715,7 +4282,7 @@
         <v>8530.3499999999985</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E44">
         <f>SUM($B$2:B44)</f>
@@ -3779,7 +4346,7 @@
         <v>8646.5499999999993</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F50">
         <f>SUM($B$50:B50)</f>
@@ -3798,7 +4365,7 @@
         <v>9010.5499999999993</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F51">
         <f>SUM($B$50:B51)</f>
@@ -3817,7 +4384,7 @@
         <v>9153.75</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F52">
         <f>SUM($B$50:B52)</f>
@@ -3836,7 +4403,7 @@
         <v>9161.75</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F53">
         <f>SUM($B$50:B53)</f>
@@ -3855,7 +4422,7 @@
         <v>9175.75</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F54">
         <f>SUM($B$50:B54)</f>
@@ -3874,7 +4441,7 @@
         <v>9295.75</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F55">
         <f>SUM($B$50:B55)</f>
@@ -3893,7 +4460,7 @@
         <v>9390.75</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F56">
         <f>SUM($B$50:B56)</f>
@@ -3912,7 +4479,7 @@
         <v>9559.75</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57">
         <f>SUM($B$50:B57)</f>
@@ -3931,7 +4498,7 @@
         <v>9609.3799999999992</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F58">
         <f>SUM($B$50:B58)</f>
@@ -3950,7 +4517,7 @@
         <v>9617.119999999999</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59">
         <f>SUM($B$50:B59)</f>
@@ -3969,7 +4536,7 @@
         <v>9649.619999999999</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F60">
         <f>SUM($B$50:B60)</f>
@@ -3988,7 +4555,7 @@
         <v>9694.619999999999</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F61">
         <f>SUM($B$50:B61)</f>
@@ -3997,7 +4564,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C64">
         <v>666.58</v>
@@ -4006,7 +4573,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B66" s="29"/>
       <c r="C66" s="29">
@@ -4014,7 +4581,7 @@
         <v>10361.199999999999</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
@@ -4026,7 +4593,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67">
         <v>10000</v>
@@ -4034,7 +4601,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C69" s="28">
         <f>C66-C67</f>
@@ -4054,25 +4621,25 @@
       <c r="O69" s="28"/>
     </row>
     <row r="70" spans="1:15" ht="35.25">
-      <c r="A70" s="41">
+      <c r="A70" s="48">
         <v>201912</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>3</v>
@@ -4081,10 +4648,10 @@
         <v>2</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" t="s">
         <v>169</v>
-      </c>
-      <c r="F71" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4099,7 +4666,7 @@
         <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E72">
         <f>SUM($B$72:B72)</f>
@@ -4118,16 +4685,16 @@
         <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E73">
         <f>SUM($B$72:B73)</f>
         <v>103</v>
       </c>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74">
@@ -4141,14 +4708,14 @@
         <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E74">
         <f>SUM($B$72:B74)</f>
         <v>111</v>
       </c>
       <c r="G74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H74">
         <v>297</v>
@@ -4170,7 +4737,7 @@
         <v>120</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E75">
         <f>SUM($B$72:B75)</f>
@@ -4178,7 +4745,7 @@
       </c>
       <c r="F75" s="1"/>
       <c r="G75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H75" s="1">
         <v>158</v>
@@ -4202,14 +4769,14 @@
         <v>310</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E76">
         <f>SUM($B$72:B76)</f>
         <v>310</v>
       </c>
       <c r="G76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H76">
         <v>298</v>
@@ -4232,14 +4799,14 @@
         <v>1152</v>
       </c>
       <c r="D77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E77">
         <f>SUM($B$72:B77)</f>
         <v>1152</v>
       </c>
       <c r="G77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H77">
         <v>199</v>
@@ -4262,14 +4829,14 @@
         <v>1379.2</v>
       </c>
       <c r="D78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E78">
         <f>SUM($B$72:B78)</f>
         <v>1379.2</v>
       </c>
       <c r="G78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H78">
         <v>214.62</v>
@@ -4292,7 +4859,7 @@
         <v>1590.2</v>
       </c>
       <c r="D79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E79">
         <f>SUM($B$72:B79)</f>
@@ -4311,7 +4878,7 @@
         <v>1605.2</v>
       </c>
       <c r="D80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E80">
         <f>SUM($B$72:B80)</f>
@@ -4330,7 +4897,7 @@
         <v>1805.2</v>
       </c>
       <c r="D81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E81">
         <f>SUM($B$72:B81)</f>
@@ -4349,7 +4916,7 @@
         <v>1837.2</v>
       </c>
       <c r="D82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E82">
         <f>SUM($B$72:B82)</f>
@@ -4478,7 +5045,7 @@
         <v>3126.81</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F94">
         <f>SUM($B$94:B94)</f>
@@ -4497,7 +5064,7 @@
         <v>3137.81</v>
       </c>
       <c r="D95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F95">
         <f>SUM($B$94:B95)</f>
@@ -4516,7 +5083,7 @@
         <v>3185.81</v>
       </c>
       <c r="D96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F96">
         <f>SUM($B$94:B96)</f>
@@ -4535,7 +5102,7 @@
         <v>3225.81</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F97">
         <f>SUM($B$94:B97)</f>
@@ -4554,7 +5121,7 @@
         <v>3235.21</v>
       </c>
       <c r="D98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F98">
         <f>SUM($B$94:B98)</f>
@@ -4573,7 +5140,7 @@
         <v>3248.01</v>
       </c>
       <c r="D99" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F99">
         <f>SUM($B$94:B99)</f>
@@ -4592,7 +5159,7 @@
         <v>3301.4100000000003</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F100">
         <f>SUM($B$94:B100)</f>
@@ -4611,14 +5178,14 @@
         <v>3366.4100000000003</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F101">
         <f>SUM($B$94:B101)</f>
         <v>1529.21</v>
       </c>
       <c r="H101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4633,7 +5200,7 @@
         <v>5366.41</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F102">
         <f>SUM($B$94:B102)</f>
@@ -4656,7 +5223,7 @@
         <v>5739.41</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F103">
         <f>SUM($B$94:B103)</f>
@@ -4679,7 +5246,7 @@
         <v>5889.41</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F104">
         <f>SUM($B$94:B104)</f>
@@ -4702,7 +5269,7 @@
         <v>5899.41</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F105">
         <f>SUM($B$94:B105)</f>
@@ -4725,7 +5292,7 @@
         <v>5924.41</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F106">
         <f>SUM($B$94:B106)</f>
@@ -4748,7 +5315,7 @@
         <v>5929.41</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F107">
         <f>SUM($B$94:B107)</f>
@@ -4771,7 +5338,7 @@
         <v>6004.01</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F108">
         <f>SUM($B$94:B108)</f>
@@ -4796,7 +5363,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C111">
         <f>SUM($B$72:B111)</f>
@@ -4805,7 +5372,7 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C113">
         <v>309.14999999999998</v>
@@ -4813,7 +5380,7 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C114" s="27">
         <v>361.2</v>
@@ -4821,7 +5388,7 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B116" s="30"/>
       <c r="C116" s="30">
@@ -4843,17 +5410,17 @@
       <c r="P116" s="30"/>
     </row>
     <row r="118" spans="1:16" ht="35.25">
-      <c r="A118" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
+      <c r="A118" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="48"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="27">
@@ -4867,7 +5434,7 @@
         <v>1000</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -4882,7 +5449,7 @@
         <v>1319.45</v>
       </c>
       <c r="D120" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -4897,27 +5464,27 @@
         <v>1638.9</v>
       </c>
       <c r="D121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="25.5">
-      <c r="A123" s="44" t="s">
+      <c r="A123" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="40" t="s">
         <v>210</v>
-      </c>
-      <c r="B123" s="45"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="46" t="s">
-        <v>211</v>
       </c>
       <c r="E123" s="36">
         <f>C116-H107-F101+C121</f>
         <v>4221.0499999999993</v>
       </c>
-      <c r="F123" s="45"/>
-      <c r="G123" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="H123" s="45">
+      <c r="F123" s="39"/>
+      <c r="G123" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H123" s="39">
         <f>F101+H107</f>
         <v>4092.21</v>
       </c>
@@ -4926,14 +5493,14 @@
       <c r="K123" s="28"/>
     </row>
     <row r="125" spans="1:16" ht="33">
-      <c r="A125" s="42">
+      <c r="A125" s="49">
         <v>202003</v>
       </c>
-      <c r="B125" s="42"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="42"/>
-      <c r="E125" s="42"/>
-      <c r="F125" s="42"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="49"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="49"/>
     </row>
     <row r="126" spans="1:16">
       <c r="A126">
@@ -4947,7 +5514,7 @@
         <v>298.83999999999997</v>
       </c>
       <c r="D126" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -4962,7 +5529,7 @@
         <v>308.83999999999997</v>
       </c>
       <c r="D127" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -4977,14 +5544,14 @@
         <v>431.84</v>
       </c>
       <c r="D128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="25.5">
-      <c r="A131" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="B131" s="40"/>
+      <c r="A131" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B131" s="47"/>
       <c r="C131" s="31"/>
       <c r="D131" s="36">
         <f>E123+C128</f>
@@ -4998,8 +5565,126 @@
       <c r="J131" s="31"/>
       <c r="K131" s="31"/>
     </row>
+    <row r="133" spans="1:11" ht="33">
+      <c r="A133" s="46">
+        <v>202004</v>
+      </c>
+      <c r="B133" s="46"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="46"/>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>20200401</v>
+      </c>
+      <c r="B134">
+        <v>520</v>
+      </c>
+      <c r="C134">
+        <f>SUM($B$134:B134)</f>
+        <v>520</v>
+      </c>
+      <c r="D134" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>20200401</v>
+      </c>
+      <c r="B135">
+        <v>123</v>
+      </c>
+      <c r="C135">
+        <f>SUM($B$134:B135)</f>
+        <v>643</v>
+      </c>
+      <c r="D135" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>20200405</v>
+      </c>
+      <c r="B136">
+        <v>200</v>
+      </c>
+      <c r="C136">
+        <f>SUM($B$134:B136)</f>
+        <v>843</v>
+      </c>
+      <c r="D136" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>20200407</v>
+      </c>
+      <c r="B137">
+        <v>319.45</v>
+      </c>
+      <c r="C137">
+        <f>SUM($B$134:B137)</f>
+        <v>1162.45</v>
+      </c>
+      <c r="D137" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>20200415</v>
+      </c>
+      <c r="B138">
+        <v>-1000</v>
+      </c>
+      <c r="C138">
+        <f>SUM($B$134:B138)</f>
+        <v>162.45000000000005</v>
+      </c>
+      <c r="D138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>20200416</v>
+      </c>
+      <c r="B139">
+        <v>218</v>
+      </c>
+      <c r="C139">
+        <f>SUM($B$134:B139)</f>
+        <v>380.45000000000005</v>
+      </c>
+      <c r="D139" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="C140">
+        <f>SUM($B$134:B140)</f>
+        <v>380.45000000000005</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="25.5">
+      <c r="A141" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="36">
+        <f>D131+C140</f>
+        <v>5033.3399999999992</v>
+      </c>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A133:D133"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="H73:K73"/>
@@ -5018,7 +5703,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5031,104 +5716,104 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="15">
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -5140,13 +5825,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -5154,10 +5839,10 @@
     <row r="13" spans="1:8">
       <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -5165,10 +5850,10 @@
     <row r="14" spans="1:8">
       <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -5176,10 +5861,10 @@
     <row r="15" spans="1:8" ht="15">
       <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -5203,13 +5888,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5217,10 +5902,10 @@
     <row r="20" spans="1:8">
       <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -5228,10 +5913,10 @@
     <row r="21" spans="1:8">
       <c r="A21" s="8"/>
       <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -5250,13 +5935,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -5264,10 +5949,10 @@
     <row r="25" spans="1:8" ht="15">
       <c r="A25" s="8"/>
       <c r="B25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -5292,13 +5977,13 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" t="s">
         <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -5306,10 +5991,10 @@
     <row r="30" spans="1:8" ht="15">
       <c r="A30" s="8"/>
       <c r="B30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -5317,10 +6002,10 @@
     <row r="31" spans="1:8">
       <c r="A31" s="8"/>
       <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -5338,53 +6023,53 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:12" ht="15">
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:12" ht="15">
       <c r="B36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="15">
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:12">
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -5403,10 +6088,10 @@
     </row>
     <row r="41" spans="1:12" ht="15">
       <c r="A41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
       </c>
       <c r="C41" s="5"/>
       <c r="G41" s="3"/>
@@ -5445,34 +6130,34 @@
         <v>5</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" t="s">
         <v>14</v>
       </c>
-      <c r="I47" t="s">
-        <v>15</v>
-      </c>
       <c r="J47" t="s">
+        <v>90</v>
+      </c>
+      <c r="K47" t="s">
         <v>91</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>92</v>
-      </c>
-      <c r="L47" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -5480,7 +6165,7 @@
         <v>20190820</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>35</v>
@@ -5506,7 +6191,7 @@
         <v>20190820</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>57</v>
@@ -5533,7 +6218,7 @@
         <v>20190904</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>41</v>
@@ -5571,49 +6256,49 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickTop="1">
       <c r="A1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="G1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="M1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="R1" s="20"/>
       <c r="S1" s="22"/>
@@ -5632,7 +6317,7 @@
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="13">
         <v>20190822</v>
@@ -5645,7 +6330,7 @@
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M2" s="13">
         <v>20191008</v>
@@ -5658,7 +6343,7 @@
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="13"/>
@@ -5668,48 +6353,48 @@
     <row r="3" spans="1:21">
       <c r="A3" s="13"/>
       <c r="B3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="13"/>
       <c r="H3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="K3" s="14"/>
       <c r="M3" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="9"/>
       <c r="S3" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -5721,7 +6406,7 @@
         <v>85.68</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="14"/>
       <c r="G4" s="13"/>
@@ -5732,7 +6417,7 @@
         <v>36</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K4" s="14"/>
       <c r="M4" s="13"/>
@@ -5743,7 +6428,7 @@
         <v>81</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="9"/>
@@ -5768,7 +6453,7 @@
         <v>160.65</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="14"/>
       <c r="G5" s="13"/>
@@ -5780,7 +6465,7 @@
         <v>67.5</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K5" s="14"/>
       <c r="M5" s="13"/>
@@ -5798,7 +6483,7 @@
         <v>20191007</v>
       </c>
       <c r="T5" s="9">
-        <f t="shared" ref="T5" si="0">C5+I5</f>
+        <f>C5+I5</f>
         <v>228.15</v>
       </c>
       <c r="U5" s="14">
@@ -5808,26 +6493,26 @@
     <row r="6" spans="1:21">
       <c r="A6" s="13"/>
       <c r="B6" s="9">
-        <f t="shared" ref="B6:B15" si="1">B5+100</f>
+        <f t="shared" ref="B6:B15" si="0">B5+100</f>
         <v>20191107</v>
       </c>
       <c r="C6" s="18">
         <v>166</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="13"/>
       <c r="H6" s="9">
-        <f t="shared" ref="H6:H7" si="2">H5+100</f>
+        <f>H5+100</f>
         <v>20191107</v>
       </c>
       <c r="I6" s="18">
         <v>69.75</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K6" s="14"/>
       <c r="M6" s="13"/>
@@ -5841,7 +6526,7 @@
       <c r="Q6" s="14"/>
       <c r="R6" s="9"/>
       <c r="S6" s="13">
-        <f t="shared" ref="S6:S7" si="3">S5+100</f>
+        <f>S5+100</f>
         <v>20191107</v>
       </c>
       <c r="T6" s="9">
@@ -5855,7 +6540,7 @@
     <row r="7" spans="1:21">
       <c r="A7" s="13"/>
       <c r="B7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20191207</v>
       </c>
       <c r="C7" s="9">
@@ -5865,7 +6550,7 @@
       <c r="E7" s="14"/>
       <c r="G7" s="13"/>
       <c r="H7" s="9">
-        <f t="shared" si="2"/>
+        <f>H6+100</f>
         <v>20191207</v>
       </c>
       <c r="I7" s="18">
@@ -5885,11 +6570,11 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="9"/>
       <c r="S7" s="13">
-        <f t="shared" si="3"/>
+        <f>S6+100</f>
         <v>20191207</v>
       </c>
       <c r="T7" s="9">
-        <f t="shared" ref="T7:T16" si="4">C7+I7+O5</f>
+        <f t="shared" ref="T7:T16" si="1">C7+I7+O5</f>
         <v>309.14999999999998</v>
       </c>
       <c r="U7" s="14">
@@ -5917,7 +6602,7 @@
       <c r="K8" s="14"/>
       <c r="M8" s="13"/>
       <c r="N8" s="9">
-        <f t="shared" ref="N8:N15" si="5">N7+100</f>
+        <f t="shared" ref="N8:N15" si="2">N7+100</f>
         <v>20200307</v>
       </c>
       <c r="O8" s="18">
@@ -5930,7 +6615,7 @@
         <v>20200107</v>
       </c>
       <c r="T8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>319.45</v>
       </c>
       <c r="U8" s="14">
@@ -5960,7 +6645,7 @@
       <c r="K9" s="14"/>
       <c r="M9" s="13"/>
       <c r="N9" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20200407</v>
       </c>
       <c r="O9" s="18">
@@ -5974,7 +6659,7 @@
         <v>20200207</v>
       </c>
       <c r="T9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>319.45</v>
       </c>
       <c r="U9" s="14">
@@ -5984,7 +6669,7 @@
     <row r="10" spans="1:21">
       <c r="A10" s="13"/>
       <c r="B10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20200307</v>
       </c>
       <c r="C10" s="18">
@@ -5994,7 +6679,7 @@
       <c r="E10" s="14"/>
       <c r="G10" s="13"/>
       <c r="H10" s="9">
-        <f t="shared" ref="H10:H15" si="6">H9+100</f>
+        <f t="shared" ref="H10:H15" si="3">H9+100</f>
         <v>20200307</v>
       </c>
       <c r="I10" s="18">
@@ -6004,7 +6689,7 @@
       <c r="K10" s="14"/>
       <c r="M10" s="13"/>
       <c r="N10" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20200507</v>
       </c>
       <c r="O10" s="9">
@@ -6014,11 +6699,11 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="9"/>
       <c r="S10" s="13">
-        <f t="shared" ref="S10:S19" si="7">S9+100</f>
+        <f t="shared" ref="S10:S19" si="4">S9+100</f>
         <v>20200307</v>
       </c>
       <c r="T10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>298.83999999999997</v>
       </c>
       <c r="U10" s="14">
@@ -6028,7 +6713,7 @@
     <row r="11" spans="1:21">
       <c r="A11" s="13"/>
       <c r="B11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20200407</v>
       </c>
       <c r="C11" s="9">
@@ -6048,7 +6733,7 @@
       <c r="K11" s="14"/>
       <c r="M11" s="13"/>
       <c r="N11" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20200607</v>
       </c>
       <c r="O11" s="18">
@@ -6058,11 +6743,11 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="9"/>
       <c r="S11" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20200407</v>
       </c>
       <c r="T11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>319.45</v>
       </c>
       <c r="U11" s="14"/>
@@ -6070,7 +6755,7 @@
     <row r="12" spans="1:21">
       <c r="A12" s="13"/>
       <c r="B12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20200507</v>
       </c>
       <c r="C12" s="9">
@@ -6080,7 +6765,7 @@
       <c r="E12" s="14"/>
       <c r="G12" s="13"/>
       <c r="H12" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>20200507</v>
       </c>
       <c r="I12" s="18">
@@ -6090,7 +6775,7 @@
       <c r="K12" s="14"/>
       <c r="M12" s="13"/>
       <c r="N12" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20200707</v>
       </c>
       <c r="O12" s="9">
@@ -6100,11 +6785,11 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="9"/>
       <c r="S12" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20200507</v>
       </c>
       <c r="T12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>309.14999999999998</v>
       </c>
       <c r="U12" s="14"/>
@@ -6112,7 +6797,7 @@
     <row r="13" spans="1:21">
       <c r="A13" s="13"/>
       <c r="B13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20200607</v>
       </c>
       <c r="C13" s="9">
@@ -6122,7 +6807,7 @@
       <c r="E13" s="14"/>
       <c r="G13" s="13"/>
       <c r="H13" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>20200607</v>
       </c>
       <c r="I13" s="18">
@@ -6132,7 +6817,7 @@
       <c r="K13" s="14"/>
       <c r="M13" s="13"/>
       <c r="N13" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20200807</v>
       </c>
       <c r="O13" s="18">
@@ -6142,11 +6827,11 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="9"/>
       <c r="S13" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20200607</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>319.45</v>
       </c>
       <c r="U13" s="14"/>
@@ -6154,7 +6839,7 @@
     <row r="14" spans="1:21">
       <c r="A14" s="13"/>
       <c r="B14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20200707</v>
       </c>
       <c r="C14" s="9">
@@ -6164,7 +6849,7 @@
       <c r="E14" s="14"/>
       <c r="G14" s="13"/>
       <c r="H14" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>20200707</v>
       </c>
       <c r="I14" s="18">
@@ -6174,7 +6859,7 @@
       <c r="K14" s="14"/>
       <c r="M14" s="13"/>
       <c r="N14" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20200907</v>
       </c>
       <c r="O14" s="18">
@@ -6184,11 +6869,11 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="9"/>
       <c r="S14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20200707</v>
       </c>
       <c r="T14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>309.14999999999998</v>
       </c>
       <c r="U14" s="14"/>
@@ -6196,7 +6881,7 @@
     <row r="15" spans="1:21">
       <c r="A15" s="13"/>
       <c r="B15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20200807</v>
       </c>
       <c r="C15" s="9">
@@ -6206,7 +6891,7 @@
       <c r="E15" s="14"/>
       <c r="G15" s="13"/>
       <c r="H15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>20200807</v>
       </c>
       <c r="I15" s="18">
@@ -6216,7 +6901,7 @@
       <c r="K15" s="14"/>
       <c r="M15" s="13"/>
       <c r="N15" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20201007</v>
       </c>
       <c r="O15" s="18">
@@ -6226,11 +6911,11 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="9"/>
       <c r="S15" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20200807</v>
       </c>
       <c r="T15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>17219.45</v>
       </c>
       <c r="U15" s="14"/>
@@ -6253,11 +6938,11 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="9"/>
       <c r="S16" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20200907</v>
       </c>
       <c r="T16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>83.7</v>
       </c>
       <c r="U16" s="14"/>
@@ -6265,7 +6950,7 @@
     <row r="17" spans="1:21" ht="15" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="9">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+166</f>
@@ -6275,7 +6960,7 @@
       <c r="E17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="9">
         <f>I4+I5+I6+I7+I8+I9+I10+I11+I12+I13+I14+69.75</f>
@@ -6286,7 +6971,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="15"/>
       <c r="N17" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O17" s="16">
         <f>O4+O5+O6+O7+O8+O9+O10+O11+O12+O13+O14+81</f>
@@ -6296,7 +6981,7 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="9"/>
       <c r="S17" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20201007</v>
       </c>
       <c r="T17" s="9">
@@ -6321,7 +7006,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="S18" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20201107</v>
       </c>
       <c r="T18" s="9"/>
@@ -6344,7 +7029,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="S19" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20201207</v>
       </c>
       <c r="T19" s="9"/>
@@ -6467,7 +7152,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="S25" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T25" s="9">
         <f>B2+H2+N2</f>
@@ -6492,7 +7177,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="S26" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T26" s="16">
         <f>C17+I17+O17</f>
